--- a/old_database/crypto/library/library_468.xlsx
+++ b/old_database/crypto/library/library_468.xlsx
@@ -46,7 +46,7 @@
     <t>01.30.11</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_468</t>
   </si>
   <si>
     <t>02.05.11</t>

--- a/old_database/crypto/library/library_468.xlsx
+++ b/old_database/crypto/library/library_468.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t xml:space="preserve">s2cDNADate</t>
   </si>
@@ -43,10 +43,7 @@
     <t xml:space="preserve">index1Sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">index2Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Sequence</t>
+    <t xml:space="preserve">libraryProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">01.30.11</t>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">ATGACAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolexaPrep</t>
   </si>
   <si>
     <t xml:space="preserve">CCGATTA</t>
@@ -185,13 +185,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -224,7 +228,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -249,48 +253,49 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
@@ -298,22 +303,25 @@
       <c r="G3" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
@@ -321,22 +329,25 @@
       <c r="G4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -344,22 +355,25 @@
       <c r="G5" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -367,22 +381,25 @@
       <c r="G6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -390,22 +407,25 @@
       <c r="G7" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
@@ -413,22 +433,25 @@
       <c r="G8" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
@@ -436,22 +459,25 @@
       <c r="G9" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -459,22 +485,25 @@
       <c r="G10" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -482,22 +511,25 @@
       <c r="G11" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
@@ -505,22 +537,25 @@
       <c r="G12" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
@@ -528,28 +563,34 @@
       <c r="G13" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
